--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\software testing\Abeez interior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abeez interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF532EE2-FAF7-41ED-AA91-1659C39742F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA5E09-BD7C-4430-8165-0203C650BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1694DF24-4D37-452F-8A10-A165FDDE96D8}"/>
   </bookViews>
@@ -22,6 +22,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve"> Test case Report</t>
+  </si>
+  <si>
+    <t>Bug Report</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,14 +382,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE38ACA-161F-408A-87BA-DB8253599981}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abeez interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEA5E09-BD7C-4430-8165-0203C650BE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E3DA15-9C1F-4CD9-B1EE-01005073173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1694DF24-4D37-452F-8A10-A165FDDE96D8}"/>
   </bookViews>
@@ -25,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve"> Test case Report</t>
   </si>
   <si>
     <t>Bug Report</t>
+  </si>
+  <si>
+    <t>dsdsbdfb</t>
+  </si>
+  <si>
+    <t>sbsb</t>
+  </si>
+  <si>
+    <t>bsbs</t>
+  </si>
+  <si>
+    <t>bsfbfsbbb</t>
+  </si>
+  <si>
+    <t>fsbsbsb</t>
   </si>
 </sst>
 </file>
@@ -382,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE38ACA-161F-408A-87BA-DB8253599981}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,12 +408,27 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abeez interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E3DA15-9C1F-4CD9-B1EE-01005073173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3AB813-2D75-4DD9-9456-8114344EE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1694DF24-4D37-452F-8A10-A165FDDE96D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> Test case Report</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>fsbsbsb</t>
+  </si>
+  <si>
+    <t>ashwin</t>
+  </si>
+  <si>
+    <t>amal</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE38ACA-161F-408A-87BA-DB8253599981}">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A2:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +414,7 @@
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -429,6 +435,12 @@
       </c>
       <c r="G2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abeez interior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3AB813-2D75-4DD9-9456-8114344EE9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3419538B-E670-4470-8273-7E2882CAE452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1694DF24-4D37-452F-8A10-A165FDDE96D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,40 +26,265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve"> Test case Report</t>
-  </si>
-  <si>
-    <t>Bug Report</t>
-  </si>
-  <si>
-    <t>dsdsbdfb</t>
-  </si>
-  <si>
-    <t>sbsb</t>
-  </si>
-  <si>
-    <t>bsbs</t>
-  </si>
-  <si>
-    <t>bsfbfsbbb</t>
-  </si>
-  <si>
-    <t>fsbsbsb</t>
-  </si>
-  <si>
-    <t>ashwin</t>
-  </si>
-  <si>
-    <t>amal</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+  <si>
+    <t>TEST CASE ID</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+  </si>
+  <si>
+    <t>TEST CASE DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TEST CASE STEPS</t>
+  </si>
+  <si>
+    <t>PRECONDITION</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTUAL RESULT </t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>ATTACHMENT</t>
+  </si>
+  <si>
+    <t>TC_ABINT_001</t>
+  </si>
+  <si>
+    <t>HOME PAGE</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click each individually</t>
+  </si>
+  <si>
+    <t>1.user must have a proper internet connection 2.should be logged in 3.browser :brave 4.device :HP laptop</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>user must be able to  redirected to te prescribed page after clicking each icons</t>
+  </si>
+  <si>
+    <t>user is unable to redirected to the required field</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>TC_ABINT_002</t>
+  </si>
+  <si>
+    <t>verify whether the learn more is working</t>
+  </si>
+  <si>
+    <t>Verify whether the icon are functional</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the learn more button</t>
+  </si>
+  <si>
+    <t>user must be able to enter into further details after cliking the learn more button</t>
+  </si>
+  <si>
+    <t>TC_ABINT_003</t>
+  </si>
+  <si>
+    <t>verify whether the home button is working</t>
+  </si>
+  <si>
+    <t>user must be able to redirect to the home page after clicking the home button</t>
+  </si>
+  <si>
+    <t>user is able to redirect to the home page after clicking the home button</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_ABINT_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify whether the contact us option is working </t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the home button</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the contact us option</t>
+  </si>
+  <si>
+    <t>user must be able to access the contact options after clicking the option</t>
+  </si>
+  <si>
+    <t>user is unable to access the contact details through the button</t>
+  </si>
+  <si>
+    <t>Faill</t>
+  </si>
+  <si>
+    <t>TC_ABINT_005</t>
+  </si>
+  <si>
+    <t>verify whether the back to top icon is working</t>
+  </si>
+  <si>
+    <t>user must be fast travelled to the top after clicking the back to top option</t>
+  </si>
+  <si>
+    <t>user Is redirected to the expected result</t>
+  </si>
+  <si>
+    <t>BUG ID</t>
+  </si>
+  <si>
+    <t>BUG DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STEPS TO REPRODUCE</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>REPORTED BY</t>
+  </si>
+  <si>
+    <t>REPORTED DATE</t>
+  </si>
+  <si>
+    <t>abint_01</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>unable to access the icons</t>
+  </si>
+  <si>
+    <t>Ashwin Saji</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>abint_02</t>
+  </si>
+  <si>
+    <t>unable to access the learn more option</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>abint_03</t>
+  </si>
+  <si>
+    <t>unable to access the contact option</t>
+  </si>
+  <si>
+    <t>abint_04</t>
+  </si>
+  <si>
+    <t>TC_ABINT_006</t>
+  </si>
+  <si>
+    <t>verify whether the page is reloaded after clicking the page logo</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the page logo option</t>
+  </si>
+  <si>
+    <t>user page must be reloaded after clicking the logo page</t>
+  </si>
+  <si>
+    <t>user page is reloaded</t>
+  </si>
+  <si>
+    <t>TC_ABINT_007</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the category picture option</t>
+  </si>
+  <si>
+    <t>verify whether the category pictures is accessable</t>
+  </si>
+  <si>
+    <t>user must be able to see the design ideas of differenr categories after clicking the pictures</t>
+  </si>
+  <si>
+    <t>user is unable to see the category pictures after clicking the pictures</t>
+  </si>
+  <si>
+    <t>unable to see the category dessign ideas</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TC_ABINT_008</t>
+  </si>
+  <si>
+    <t>after clicking the twitter and instagram icons the page is directed back to the home page</t>
+  </si>
+  <si>
+    <t>1.Open https://abheesinteriors.com/ 2.click the icons</t>
+  </si>
+  <si>
+    <t>user must be redirected to the prescribed site after clicking the icons</t>
+  </si>
+  <si>
+    <t>user Is redirected back to the home page</t>
+  </si>
+  <si>
+    <t>abint_05</t>
+  </si>
+  <si>
+    <t>redirected to homepage after clicking the social media icons</t>
+  </si>
+  <si>
+    <t>check it routes to icons when clicking</t>
+  </si>
+  <si>
+    <t>check it routes to learn more when clicking</t>
+  </si>
+  <si>
+    <t>check it routes to contact option  when clicking</t>
+  </si>
+  <si>
+    <t>check it routes to category design ideas when clicking</t>
+  </si>
+  <si>
+    <t>check it routes tosocial media  icons when clicking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +292,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +353,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +446,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30129</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1527355</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1005840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0359E7B-9FBA-2BFC-D352-7E1385ED6922}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13205109" y="464820"/>
+          <a:ext cx="1497226" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1066799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E5B6C6E-E771-A12B-A344-C57502F72743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13220700" y="1504070"/>
+          <a:ext cx="1478280" cy="1041009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9009</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>995618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D7C39E-7979-5A16-F026-AF8712CDF47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13183989" y="7002780"/>
+          <a:ext cx="1566940" cy="957518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,47 +900,526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE38ACA-161F-408A-87BA-DB8253599981}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F5266D-5484-4306-B5D6-8D658F78E9D8}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="19">
+        <v>45793</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="17">
+        <v>45794</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="19">
+        <v>45795</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45796</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="19">
+        <v>45797</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>